--- a/Prototypes/Barley/Observations/RS14_15CoverGreen.xlsx
+++ b/Prototypes/Barley/Observations/RS14_15CoverGreen.xlsx
@@ -28,19 +28,19 @@
     <t>RS2014_15CultDashIrrHigh</t>
   </si>
   <si>
-    <t>RS2014_15CultDashIrrMed</t>
+    <t>RS2014_15CultDashIrrLow</t>
   </si>
   <si>
-    <t>RS2014_15CultDashIrrLow</t>
+    <t>RS2014_15CultDashIrrMed</t>
   </si>
   <si>
     <t>RS2014_15CultOmakaIrrHigh</t>
   </si>
   <si>
-    <t>RS2014_15CultOmakaIrrMed</t>
+    <t>RS2014_15CultOmakaIrrLow</t>
   </si>
   <si>
-    <t>RS2014_15CultOmakaIrrLow</t>
+    <t>RS2014_15CultOmakaIrrMed</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
         <v>41941</v>
       </c>
       <c r="C2">
-        <v>0.11</v>
+        <v>0.0136294649276468</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -440,7 +440,7 @@
         <v>41947</v>
       </c>
       <c r="C3">
-        <v>0.18</v>
+        <v>0.0238718121153166</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,7 +451,7 @@
         <v>41950</v>
       </c>
       <c r="C4">
-        <v>0.1675</v>
+        <v>0.122159075530195</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -462,7 +462,7 @@
         <v>41953</v>
       </c>
       <c r="C5">
-        <v>0.2225</v>
+        <v>0.252441297598311</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -473,7 +473,7 @@
         <v>41956</v>
       </c>
       <c r="C6">
-        <v>0.2975</v>
+        <v>0.345254091888281</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -484,7 +484,7 @@
         <v>41960</v>
       </c>
       <c r="C7">
-        <v>0.425</v>
+        <v>0.46400431120348</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -495,7 +495,7 @@
         <v>41963</v>
       </c>
       <c r="C8">
-        <v>0.6525</v>
+        <v>0.676971349367946</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -506,7 +506,7 @@
         <v>41967</v>
       </c>
       <c r="C9">
-        <v>0.7175</v>
+        <v>0.764003742491589</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -517,7 +517,7 @@
         <v>41970</v>
       </c>
       <c r="C10">
-        <v>0.785</v>
+        <v>0.932063950440249</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -528,7 +528,7 @@
         <v>41975</v>
       </c>
       <c r="C11">
-        <v>0.7975</v>
+        <v>0.961293248605358</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -539,7 +539,7 @@
         <v>41978</v>
       </c>
       <c r="C12">
-        <v>0.7975</v>
+        <v>0.971472145626784</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -550,7 +550,7 @@
         <v>41981</v>
       </c>
       <c r="C13">
-        <v>0.8025</v>
+        <v>0.963973759264701</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -561,7 +561,7 @@
         <v>41985</v>
       </c>
       <c r="C14">
-        <v>0.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -572,7 +572,7 @@
         <v>41989</v>
       </c>
       <c r="C15">
-        <v>0.7925</v>
+        <v>0.952112441482091</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -583,7 +583,7 @@
         <v>41991</v>
       </c>
       <c r="C16">
-        <v>0.8325</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -594,7 +594,7 @@
         <v>41996</v>
       </c>
       <c r="C17">
-        <v>0.78</v>
+        <v>0.944994551657493</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -605,7 +605,7 @@
         <v>42003</v>
       </c>
       <c r="C18">
-        <v>0.8</v>
+        <v>0.994835341474971</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -616,7 +616,7 @@
         <v>42010</v>
       </c>
       <c r="C19">
-        <v>0.78</v>
+        <v>0.996286118078755</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -627,7 +627,7 @@
         <v>42012</v>
       </c>
       <c r="C20">
-        <v>0.77</v>
+        <v>0.976675335897358</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -638,7 +638,7 @@
         <v>42018</v>
       </c>
       <c r="C21">
-        <v>0.6975</v>
+        <v>0.746098085991373</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -649,7 +649,7 @@
         <v>42020</v>
       </c>
       <c r="C22">
-        <v>0.6625</v>
+        <v>0.700452726159714</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -660,7 +660,7 @@
         <v>42023</v>
       </c>
       <c r="C23">
-        <v>0.57</v>
+        <v>0.609959918431704</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -671,7 +671,7 @@
         <v>42026</v>
       </c>
       <c r="C24">
-        <v>0.5175</v>
+        <v>0.548199710004261</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -682,7 +682,7 @@
         <v>42030</v>
       </c>
       <c r="C25">
-        <v>0.325</v>
+        <v>0.377689380370396</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -693,7 +693,7 @@
         <v>42033</v>
       </c>
       <c r="C26">
-        <v>0.245</v>
+        <v>0.286134194489625</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -704,7 +704,7 @@
         <v>42037</v>
       </c>
       <c r="C27">
-        <v>0.165</v>
+        <v>0.140567078039704</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -715,7 +715,7 @@
         <v>42039</v>
       </c>
       <c r="C28">
-        <v>0.15</v>
+        <v>0.101452801628627</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -726,7 +726,7 @@
         <v>42045</v>
       </c>
       <c r="C29">
-        <v>0.13</v>
+        <v>0.0592394070803316</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -737,7 +737,7 @@
         <v>41941</v>
       </c>
       <c r="C30">
-        <v>0.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -748,7 +748,7 @@
         <v>41947</v>
       </c>
       <c r="C31">
-        <v>0.1675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -759,7 +759,7 @@
         <v>41950</v>
       </c>
       <c r="C32">
-        <v>0.1625</v>
+        <v>0.0523657218922894</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -770,7 +770,7 @@
         <v>41953</v>
       </c>
       <c r="C33">
-        <v>0.205</v>
+        <v>0.150476232274553</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -781,7 +781,7 @@
         <v>41956</v>
       </c>
       <c r="C34">
-        <v>0.25</v>
+        <v>0.220941358366301</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -792,7 +792,7 @@
         <v>41960</v>
       </c>
       <c r="C35">
-        <v>0.3525</v>
+        <v>0.375755428683326</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -803,7 +803,7 @@
         <v>41963</v>
       </c>
       <c r="C36">
-        <v>0.41</v>
+        <v>0.456354557278197</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -814,7 +814,7 @@
         <v>41967</v>
       </c>
       <c r="C37">
-        <v>0.5225</v>
+        <v>0.617195716151818</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -825,7 +825,7 @@
         <v>41970</v>
       </c>
       <c r="C38">
-        <v>0.5375</v>
+        <v>0.635522745184709</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -836,7 +836,7 @@
         <v>41975</v>
       </c>
       <c r="C39">
-        <v>0.535</v>
+        <v>0.631645092478729</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -847,7 +847,7 @@
         <v>41978</v>
       </c>
       <c r="C40">
-        <v>0.63</v>
+        <v>0.790160513222522</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -858,7 +858,7 @@
         <v>41981</v>
       </c>
       <c r="C41">
-        <v>0.59</v>
+        <v>0.723536189020166</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -869,7 +869,7 @@
         <v>41985</v>
       </c>
       <c r="C42">
-        <v>0.6425</v>
+        <v>0.806939635473158</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -880,7 +880,7 @@
         <v>41989</v>
       </c>
       <c r="C43">
-        <v>0.6175</v>
+        <v>0.765284667390032</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -891,7 +891,7 @@
         <v>41991</v>
       </c>
       <c r="C44">
-        <v>0.6525</v>
+        <v>0.834999920714988</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -902,7 +902,7 @@
         <v>41996</v>
       </c>
       <c r="C45">
-        <v>0.59</v>
+        <v>0.733142128634232</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -913,7 +913,7 @@
         <v>42003</v>
       </c>
       <c r="C46">
-        <v>0.5775</v>
+        <v>0.722341738912281</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -924,7 +924,7 @@
         <v>42010</v>
       </c>
       <c r="C47">
-        <v>0.495</v>
+        <v>0.611954846369538</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -935,7 +935,7 @@
         <v>42012</v>
       </c>
       <c r="C48">
-        <v>0.44</v>
+        <v>0.53515932400778</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -946,7 +946,7 @@
         <v>42018</v>
       </c>
       <c r="C49">
-        <v>0.3</v>
+        <v>0.299413380679875</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -957,7 +957,7 @@
         <v>42020</v>
       </c>
       <c r="C50">
-        <v>0.2425</v>
+        <v>0.209927303847589</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -968,7 +968,7 @@
         <v>42023</v>
       </c>
       <c r="C51">
-        <v>0.1525</v>
+        <v>0.0608578837487</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -979,7 +979,7 @@
         <v>42026</v>
       </c>
       <c r="C52">
-        <v>0.145</v>
+        <v>0.013725094145537</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -990,7 +990,7 @@
         <v>42030</v>
       </c>
       <c r="C53">
-        <v>0.1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1045,7 +1045,7 @@
         <v>41941</v>
       </c>
       <c r="C58">
-        <v>0.115</v>
+        <v>0.0114406190837529</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1056,7 +1056,7 @@
         <v>41947</v>
       </c>
       <c r="C59">
-        <v>0.1975</v>
+        <v>0.00572030954187644</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1067,7 +1067,7 @@
         <v>41950</v>
       </c>
       <c r="C60">
-        <v>0.1725</v>
+        <v>0.0733854227945564</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1078,7 +1078,7 @@
         <v>41953</v>
       </c>
       <c r="C61">
-        <v>0.22</v>
+        <v>0.177404748585578</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1089,7 +1089,7 @@
         <v>41956</v>
       </c>
       <c r="C62">
-        <v>0.2825</v>
+        <v>0.274463790841825</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1100,7 +1100,7 @@
         <v>41960</v>
       </c>
       <c r="C63">
-        <v>0.3725</v>
+        <v>0.405084648096335</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1111,7 +1111,7 @@
         <v>41963</v>
       </c>
       <c r="C64">
-        <v>0.42</v>
+        <v>0.47074960708713</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1122,7 +1122,7 @@
         <v>41967</v>
       </c>
       <c r="C65">
-        <v>0.4775</v>
+        <v>0.550805118573791</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>41970</v>
       </c>
       <c r="C66">
-        <v>0.4875</v>
+        <v>0.561263048784099</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1144,7 +1144,7 @@
         <v>41975</v>
       </c>
       <c r="C67">
-        <v>0.455</v>
+        <v>0.513117829178741</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1155,7 +1155,7 @@
         <v>41978</v>
       </c>
       <c r="C68">
-        <v>0.5925</v>
+        <v>0.730681139432698</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1166,7 +1166,7 @@
         <v>41981</v>
       </c>
       <c r="C69">
-        <v>0.585</v>
+        <v>0.719789366999253</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1177,7 +1177,7 @@
         <v>41985</v>
       </c>
       <c r="C70">
-        <v>0.6475</v>
+        <v>0.823012469939039</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1188,7 +1188,7 @@
         <v>41989</v>
       </c>
       <c r="C71">
-        <v>0.5925</v>
+        <v>0.729135477807185</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1199,7 +1199,7 @@
         <v>41991</v>
       </c>
       <c r="C72">
-        <v>0.6525</v>
+        <v>0.848162681425153</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1210,7 +1210,7 @@
         <v>41996</v>
       </c>
       <c r="C73">
-        <v>0.6325</v>
+        <v>0.811903216221279</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1221,7 +1221,7 @@
         <v>42003</v>
       </c>
       <c r="C74">
-        <v>0.635</v>
+        <v>0.825390259599074</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1232,7 +1232,7 @@
         <v>42010</v>
       </c>
       <c r="C75">
-        <v>0.675</v>
+        <v>0.902252857450865</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1243,7 +1243,7 @@
         <v>42012</v>
       </c>
       <c r="C76">
-        <v>0.6425</v>
+        <v>0.85920502526026</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1254,7 +1254,7 @@
         <v>42018</v>
       </c>
       <c r="C77">
-        <v>0.6075</v>
+        <v>0.76624982444002</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1265,7 +1265,7 @@
         <v>42020</v>
       </c>
       <c r="C78">
-        <v>0.555</v>
+        <v>0.688216186995834</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1276,7 +1276,7 @@
         <v>42023</v>
       </c>
       <c r="C79">
-        <v>0.3725</v>
+        <v>0.429458967940234</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1287,7 +1287,7 @@
         <v>42026</v>
       </c>
       <c r="C80">
-        <v>0.2775</v>
+        <v>0.260028956256728</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1298,7 +1298,7 @@
         <v>42030</v>
       </c>
       <c r="C81">
-        <v>0.1525</v>
+        <v>0.0512812882980839</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1309,7 +1309,7 @@
         <v>42033</v>
       </c>
       <c r="C82">
-        <v>0.14</v>
+        <v>0.0334105645198163</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1320,7 +1320,7 @@
         <v>42037</v>
       </c>
       <c r="C83">
-        <v>0.1275</v>
+        <v>0.0147874445299854</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1331,7 +1331,7 @@
         <v>42039</v>
       </c>
       <c r="C84">
-        <v>0.1225</v>
+        <v>0.00347989770215953</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1342,7 +1342,7 @@
         <v>42045</v>
       </c>
       <c r="C85">
-        <v>0.12</v>
+        <v>0.00744488048833032</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1353,7 +1353,7 @@
         <v>41941</v>
       </c>
       <c r="C86">
-        <v>0.1275</v>
+        <v>0.05004395500199</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1364,7 +1364,7 @@
         <v>41947</v>
       </c>
       <c r="C87">
-        <v>0.2425</v>
+        <v>0.100242391466905</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>41950</v>
       </c>
       <c r="C88">
-        <v>0.2225</v>
+        <v>0.169566508180552</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1386,7 +1386,7 @@
         <v>41953</v>
       </c>
       <c r="C89">
-        <v>0.295</v>
+        <v>0.261671698187166</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1397,7 +1397,7 @@
         <v>41956</v>
       </c>
       <c r="C90">
-        <v>0.3975</v>
+        <v>0.349421620520426</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1408,7 +1408,7 @@
         <v>41960</v>
       </c>
       <c r="C91">
-        <v>0.5575</v>
+        <v>0.478235946013471</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1419,7 +1419,7 @@
         <v>41963</v>
       </c>
       <c r="C92">
-        <v>0.735</v>
+        <v>0.677740485574603</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1430,7 +1430,7 @@
         <v>41967</v>
       </c>
       <c r="C93">
-        <v>0.79</v>
+        <v>0.809054710837843</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1441,7 +1441,7 @@
         <v>41970</v>
       </c>
       <c r="C94">
-        <v>0.81</v>
+        <v>0.890082774016192</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1452,7 +1452,7 @@
         <v>41975</v>
       </c>
       <c r="C95">
-        <v>0.81</v>
+        <v>0.876130813292715</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1463,7 +1463,7 @@
         <v>41978</v>
       </c>
       <c r="C96">
-        <v>0.815</v>
+        <v>0.913408453396048</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1474,7 +1474,7 @@
         <v>41981</v>
       </c>
       <c r="C97">
-        <v>0.825</v>
+        <v>0.949066750723886</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1485,7 +1485,7 @@
         <v>41985</v>
       </c>
       <c r="C98">
-        <v>0.85</v>
+        <v>0.980318719666377</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1496,7 +1496,7 @@
         <v>41989</v>
       </c>
       <c r="C99">
-        <v>0.815</v>
+        <v>0.896659799927262</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1507,7 +1507,7 @@
         <v>41991</v>
       </c>
       <c r="C100">
-        <v>0.8525</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1518,7 +1518,7 @@
         <v>41996</v>
       </c>
       <c r="C101">
-        <v>0.8225</v>
+        <v>0.954264737016116</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1529,7 +1529,7 @@
         <v>42003</v>
       </c>
       <c r="C102">
-        <v>0.795</v>
+        <v>0.84523177138156</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1540,7 +1540,7 @@
         <v>42010</v>
       </c>
       <c r="C103">
-        <v>0.745</v>
+        <v>0.744906054484436</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1551,7 +1551,7 @@
         <v>42012</v>
       </c>
       <c r="C104">
-        <v>0.74</v>
+        <v>0.740216782900665</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1562,7 +1562,7 @@
         <v>42018</v>
       </c>
       <c r="C105">
-        <v>0.73</v>
+        <v>0.696003934844501</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1573,7 +1573,7 @@
         <v>42020</v>
       </c>
       <c r="C106">
-        <v>0.74</v>
+        <v>0.714610791014837</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1584,7 +1584,7 @@
         <v>42023</v>
       </c>
       <c r="C107">
-        <v>0.65</v>
+        <v>0.59463721102297</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1595,7 +1595,7 @@
         <v>42026</v>
       </c>
       <c r="C108">
-        <v>0.5625</v>
+        <v>0.489059407885243</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1606,7 +1606,7 @@
         <v>42030</v>
       </c>
       <c r="C109">
-        <v>0.345</v>
+        <v>0.306486651584175</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1617,7 +1617,7 @@
         <v>42033</v>
       </c>
       <c r="C110">
-        <v>0.245</v>
+        <v>0.204119399784455</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1628,7 +1628,7 @@
         <v>42037</v>
       </c>
       <c r="C111">
-        <v>0.1825</v>
+        <v>0.110039203758343</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1639,7 +1639,7 @@
         <v>42039</v>
       </c>
       <c r="C112">
-        <v>0.1675</v>
+        <v>0.082960099148085</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1650,7 +1650,7 @@
         <v>42045</v>
       </c>
       <c r="C113">
-        <v>0.13</v>
+        <v>0.0388852344643379</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1661,7 +1661,7 @@
         <v>41941</v>
       </c>
       <c r="C114">
-        <v>0.1225</v>
+        <v>0.0220197022215569</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1672,7 +1672,7 @@
         <v>41947</v>
       </c>
       <c r="C115">
-        <v>0.2425</v>
+        <v>0.0713259787619025</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1683,7 +1683,7 @@
         <v>41950</v>
       </c>
       <c r="C116">
-        <v>0.2225</v>
+        <v>0.136289879724934</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1694,7 +1694,7 @@
         <v>41953</v>
       </c>
       <c r="C117">
-        <v>0.3075</v>
+        <v>0.267532484155415</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1705,7 +1705,7 @@
         <v>41956</v>
       </c>
       <c r="C118">
-        <v>0.3975</v>
+        <v>0.380963739576703</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1716,7 +1716,7 @@
         <v>41960</v>
       </c>
       <c r="C119">
-        <v>0.5525</v>
+        <v>0.584168646526822</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1727,7 +1727,7 @@
         <v>41963</v>
       </c>
       <c r="C120">
-        <v>0.64</v>
+        <v>0.710574155969841</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1738,7 +1738,7 @@
         <v>41967</v>
       </c>
       <c r="C121">
-        <v>0.7225</v>
+        <v>0.850429338609658</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1749,7 +1749,7 @@
         <v>41970</v>
       </c>
       <c r="C122">
-        <v>0.7425</v>
+        <v>0.884637296805767</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1760,7 +1760,7 @@
         <v>41975</v>
       </c>
       <c r="C123">
-        <v>0.7425</v>
+        <v>0.884902240539147</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1771,7 +1771,7 @@
         <v>41978</v>
       </c>
       <c r="C124">
-        <v>0.77</v>
+        <v>0.949774191286251</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1782,7 +1782,7 @@
         <v>41981</v>
       </c>
       <c r="C125">
-        <v>0.785</v>
+        <v>0.968168897534044</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1793,7 +1793,7 @@
         <v>41985</v>
       </c>
       <c r="C126">
-        <v>0.8175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1804,7 +1804,7 @@
         <v>41989</v>
       </c>
       <c r="C127">
-        <v>0.79</v>
+        <v>0.977328354537729</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1815,7 +1815,7 @@
         <v>41991</v>
       </c>
       <c r="C128">
-        <v>0.8225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1826,7 +1826,7 @@
         <v>41996</v>
       </c>
       <c r="C129">
-        <v>0.7925</v>
+        <v>0.996425864269756</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1837,7 +1837,7 @@
         <v>42003</v>
       </c>
       <c r="C130">
-        <v>0.805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1848,7 +1848,7 @@
         <v>42010</v>
       </c>
       <c r="C131">
-        <v>0.6525</v>
+        <v>0.766530545959525</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1859,7 +1859,7 @@
         <v>42012</v>
       </c>
       <c r="C132">
-        <v>0.595</v>
+        <v>0.678497797307239</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1870,7 +1870,7 @@
         <v>42018</v>
       </c>
       <c r="C133">
-        <v>0.3525</v>
+        <v>0.317356402728395</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1881,7 +1881,7 @@
         <v>42020</v>
       </c>
       <c r="C134">
-        <v>0.27</v>
+        <v>0.207757302588393</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1892,7 +1892,7 @@
         <v>42023</v>
       </c>
       <c r="C135">
-        <v>0.1725</v>
+        <v>0.0792739497863192</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1903,7 +1903,7 @@
         <v>42026</v>
       </c>
       <c r="C136">
-        <v>0.15</v>
+        <v>0.0267531896187345</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1914,7 +1914,7 @@
         <v>42030</v>
       </c>
       <c r="C137">
-        <v>0.125</v>
+        <v>0.00530984567716154</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1969,7 +1969,7 @@
         <v>41941</v>
       </c>
       <c r="C142">
-        <v>0.125</v>
+        <v>0.0261283703830618</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1980,7 +1980,7 @@
         <v>41947</v>
       </c>
       <c r="C143">
-        <v>0.2525</v>
+        <v>0.0872677166645383</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>41950</v>
       </c>
       <c r="C144">
-        <v>0.215</v>
+        <v>0.124805163753667</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2002,7 +2002,7 @@
         <v>41953</v>
       </c>
       <c r="C145">
-        <v>0.3</v>
+        <v>0.256579705060605</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2013,7 +2013,7 @@
         <v>41956</v>
       </c>
       <c r="C146">
-        <v>0.375</v>
+        <v>0.350984013631363</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2024,7 +2024,7 @@
         <v>41960</v>
       </c>
       <c r="C147">
-        <v>0.5075</v>
+        <v>0.52236543373589</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2035,7 +2035,7 @@
         <v>41963</v>
       </c>
       <c r="C148">
-        <v>0.5825</v>
+        <v>0.625455063078077</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2046,7 +2046,7 @@
         <v>41967</v>
       </c>
       <c r="C149">
-        <v>0.6625</v>
+        <v>0.747300449955751</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2057,7 +2057,7 @@
         <v>41970</v>
       </c>
       <c r="C150">
-        <v>0.6825</v>
+        <v>0.773840373419182</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2068,7 +2068,7 @@
         <v>41975</v>
       </c>
       <c r="C151">
-        <v>0.6775</v>
+        <v>0.766117749342588</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2079,7 +2079,7 @@
         <v>41978</v>
       </c>
       <c r="C152">
-        <v>0.7375</v>
+        <v>0.882432442355053</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>41981</v>
       </c>
       <c r="C153">
-        <v>0.7525</v>
+        <v>0.915363105731303</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2101,7 +2101,7 @@
         <v>41985</v>
       </c>
       <c r="C154">
-        <v>0.7975</v>
+        <v>0.959334301144424</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2112,7 +2112,7 @@
         <v>41989</v>
       </c>
       <c r="C155">
-        <v>0.7675</v>
+        <v>0.941454018247253</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>41991</v>
       </c>
       <c r="C156">
-        <v>0.8125</v>
+        <v>0.967121725953619</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2134,7 +2134,7 @@
         <v>41996</v>
       </c>
       <c r="C157">
-        <v>0.795</v>
+        <v>0.968627416273675</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2145,7 +2145,7 @@
         <v>42003</v>
       </c>
       <c r="C158">
-        <v>0.8225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2156,7 +2156,7 @@
         <v>42010</v>
       </c>
       <c r="C159">
-        <v>0.765</v>
+        <v>0.97205123216552</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2167,7 +2167,7 @@
         <v>42012</v>
       </c>
       <c r="C160">
-        <v>0.755</v>
+        <v>0.948284982592999</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2178,7 +2178,7 @@
         <v>42018</v>
       </c>
       <c r="C161">
-        <v>0.6825</v>
+        <v>0.790417234652698</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2189,7 +2189,7 @@
         <v>42020</v>
       </c>
       <c r="C162">
-        <v>0.635</v>
+        <v>0.717454235339843</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2200,7 +2200,7 @@
         <v>42023</v>
       </c>
       <c r="C163">
-        <v>0.4</v>
+        <v>0.399333391864812</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2211,7 +2211,7 @@
         <v>42026</v>
       </c>
       <c r="C164">
-        <v>0.3025</v>
+        <v>0.249192468704069</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2222,7 +2222,7 @@
         <v>42030</v>
       </c>
       <c r="C165">
-        <v>0.1825</v>
+        <v>0.0895082319552861</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2233,7 +2233,7 @@
         <v>42033</v>
       </c>
       <c r="C166">
-        <v>0.1625</v>
+        <v>0.0639476064858789</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2244,7 +2244,7 @@
         <v>42037</v>
       </c>
       <c r="C167">
-        <v>0.135</v>
+        <v>0.0170894026496027</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2255,7 +2255,7 @@
         <v>42039</v>
       </c>
       <c r="C168">
-        <v>0.1325</v>
+        <v>0.0126973353941999</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2266,7 +2266,7 @@
         <v>42045</v>
       </c>
       <c r="C169">
-        <v>0.125</v>
+        <v>0.0144785976974021</v>
       </c>
     </row>
   </sheetData>
